--- a/HardwareProjects/TestResults.xlsx
+++ b/HardwareProjects/TestResults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\IT.UPR\Уткин\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LocalCrypto\VerificationCenter\HardwareProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,13 +38,7 @@
     <t>Бит в числе координат</t>
   </si>
   <si>
-    <t>Файл test2.bin 169984 сгенерированный Костей</t>
-  </si>
-  <si>
     <t>e,%</t>
-  </si>
-  <si>
-    <t>Файл test.10 485 760 сгенерированный Костей</t>
   </si>
   <si>
     <t>Файл log_7_45v.bin 336 213 7,45вольта схема с двумя компараторами. 22.07.2019</t>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>log_06.bin 2 428 296</t>
+  </si>
+  <si>
+    <t>Файл test2.bin 169984 сгенерированный C#</t>
+  </si>
+  <si>
+    <t>Файл test.10 485 760 сгенерированный C#</t>
   </si>
 </sst>
 </file>
@@ -549,21 +549,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.53515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.3828125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,15 +574,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>0.7839796</v>
@@ -597,7 +597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>0.78391500000000003</v>
@@ -612,7 +612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>0.78538649999999999</v>
@@ -627,7 +627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>0.78411900000000001</v>
@@ -642,7 +642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>0.79273000000000005</v>
@@ -657,7 +657,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="7">
         <v>0.78774999999999995</v>
@@ -672,7 +672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7">
         <v>0.78486999999999996</v>
@@ -687,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="10">
         <v>0.78866999999999998</v>
@@ -702,9 +702,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>0.78903000000000001</v>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="12"/>
       <c r="B15" s="7">
         <v>0.7853</v>
@@ -734,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="7">
         <v>0.78498000000000001</v>
@@ -749,7 +749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A17" s="12"/>
       <c r="B17" s="7">
         <v>0.78510999999999997</v>
@@ -764,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="12"/>
       <c r="B18" s="7">
         <v>0.78500999999999999</v>
@@ -779,7 +779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="12"/>
       <c r="B19" s="7">
         <v>0.78539999999999999</v>
@@ -794,7 +794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" s="12"/>
       <c r="B20" s="7">
         <v>0.78532800000000003</v>
@@ -809,7 +809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="10">
         <v>0.78561999999999999</v>
@@ -824,9 +824,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="4">
         <v>0.79454999999999998</v>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="7">
         <v>0.79320999999999997</v>
@@ -856,7 +856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="7">
         <v>0.79247999999999996</v>
@@ -871,7 +871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="7">
         <v>0.79515000000000002</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="B26" s="7">
         <v>0.79315999999999998</v>
@@ -901,7 +901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="7">
         <v>0.79200999999999999</v>
@@ -916,7 +916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="7">
         <v>0.79110000000000003</v>
@@ -931,7 +931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="10">
         <v>0.79407000000000005</v>
@@ -946,9 +946,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="4">
         <v>0.79017000000000004</v>
@@ -963,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A31" s="15"/>
       <c r="B31" s="7">
         <v>0.78602000000000005</v>
@@ -978,7 +978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A32" s="15"/>
       <c r="B32" s="7">
         <v>0.78720000000000001</v>
@@ -993,7 +993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A33" s="19"/>
       <c r="B33" s="7">
         <v>0.78879999999999995</v>
@@ -1008,7 +1008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A34" s="19"/>
       <c r="B34" s="7">
         <v>0.78307000000000004</v>
@@ -1023,7 +1023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" s="19"/>
       <c r="B35" s="7">
         <v>0.78900400000000004</v>
@@ -1038,7 +1038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A36" s="19"/>
       <c r="B36" s="7">
         <v>0.78415999999999997</v>
@@ -1053,7 +1053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A37" s="21"/>
       <c r="B37" s="10">
         <v>0.78573000000000004</v>
@@ -1068,9 +1068,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" s="24">
         <v>0.79151000000000005</v>
@@ -1085,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" s="19"/>
       <c r="B39" s="17">
         <v>0.78820999999999997</v>
@@ -1100,7 +1100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" s="19"/>
       <c r="B40" s="17">
         <v>0.78774</v>
@@ -1115,7 +1115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A41" s="19"/>
       <c r="B41" s="17">
         <v>0.78800000000000003</v>
@@ -1130,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A42" s="19"/>
       <c r="B42" s="17">
         <v>0.78700000000000003</v>
@@ -1145,7 +1145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" s="19"/>
       <c r="B43" s="17">
         <v>0.78600000000000003</v>
@@ -1160,7 +1160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A44" s="19"/>
       <c r="B44" s="17">
         <v>0.78600000000000003</v>
@@ -1175,7 +1175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="21"/>
       <c r="B45" s="26">
         <v>0.78654999999999997</v>
@@ -1190,9 +1190,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B46" s="24">
         <v>0.82599999999999996</v>
@@ -1207,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A47" s="19"/>
       <c r="B47" s="17">
         <v>0.82589999999999997</v>
@@ -1222,7 +1222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" s="19"/>
       <c r="B48" s="17">
         <v>0.82</v>
@@ -1237,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" s="19"/>
       <c r="B49" s="17">
         <v>0.82299999999999995</v>
@@ -1252,7 +1252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" s="19"/>
       <c r="B50" s="17">
         <v>0.82</v>
@@ -1267,7 +1267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A51" s="19"/>
       <c r="B51" s="17">
         <v>0.82</v>
@@ -1282,7 +1282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A52" s="19"/>
       <c r="B52" s="17">
         <v>0.82</v>
@@ -1297,7 +1297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="26">
         <v>0.82</v>
@@ -1312,9 +1312,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A54" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" s="27">
         <v>0.76891615541922298</v>
@@ -1329,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="19"/>
       <c r="B55" s="29">
         <v>0.76696397772630998</v>
@@ -1344,7 +1344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="19"/>
       <c r="B56" s="29">
         <v>0.76838162822787304</v>
@@ -1359,7 +1359,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="19"/>
       <c r="B57" s="29">
         <v>0.77192982456140302</v>
@@ -1374,7 +1374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="19"/>
       <c r="B58" s="29">
         <v>0.75591482649842301</v>
@@ -1389,7 +1389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="21"/>
       <c r="B59" s="31">
         <v>0.76971608832807603</v>
@@ -1404,9 +1404,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A60" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60" s="27">
         <v>0.75531728665207898</v>
@@ -1421,7 +1421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="29">
         <v>0.74739606126914704</v>
@@ -1436,7 +1436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="19"/>
       <c r="B62" s="29">
         <v>0.74459518599562402</v>
@@ -1451,7 +1451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="19"/>
       <c r="B63" s="29">
         <v>0.74212184873949605</v>
@@ -1466,7 +1466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="19"/>
       <c r="B64" s="29">
         <v>0.73879551820728295</v>
@@ -1481,7 +1481,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="21"/>
       <c r="B65" s="31">
         <v>0.72198879551820705</v>
@@ -1496,9 +1496,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A66" s="36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66" s="27">
         <v>0.78934298679637305</v>
@@ -1513,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="19"/>
       <c r="B67" s="29">
         <v>0.78353320474473298</v>
@@ -1528,7 +1528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="19"/>
       <c r="B68" s="29">
         <v>0.78518049162302705</v>
@@ -1543,7 +1543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="19"/>
       <c r="B69" s="29">
         <v>0.78597785977859802</v>
@@ -1558,7 +1558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="19"/>
       <c r="B70" s="29">
         <v>0.78313702102281202</v>
@@ -1573,7 +1573,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="21"/>
       <c r="B71" s="31">
         <v>0.782018786342627</v>
@@ -1588,9 +1588,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" s="27">
         <v>0.78585477223534494</v>
@@ -1605,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="19"/>
       <c r="B73" s="29">
         <v>0.78181243143339996</v>
@@ -1620,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="19"/>
       <c r="B74" s="29">
         <v>0.78121612851151601</v>
@@ -1635,7 +1635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="19"/>
       <c r="B75" s="29">
         <v>0.783340361604554</v>
@@ -1650,7 +1650,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="19"/>
       <c r="B76" s="29">
         <v>0.78283959728005903</v>
@@ -1665,7 +1665,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="21"/>
       <c r="B77" s="31">
         <v>0.784908544620737</v>
